--- a/normativa/Anexos/L05T02C03/L05T02C03A04_27.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A04_27.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="663" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="663" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 2" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="Anexo 4.27A" sheetId="5" r:id="rId2"/>
+    <sheet name="Anexo 4.27A" sheetId="11" r:id="rId2"/>
     <sheet name="Anexo 4.27B" sheetId="6" r:id="rId3"/>
     <sheet name="Anexo 4.27C" sheetId="7" r:id="rId4"/>
     <sheet name="Anexo 4.27D" sheetId="8" r:id="rId5"/>
@@ -261,9 +261,6 @@
     <t>(2) Importe del patrimonio del fideicomiso.</t>
   </si>
   <si>
-    <t>(3) Importe de la variación del capital fiduciario con relación al trimestre anterior</t>
-  </si>
-  <si>
     <t>_________________________________</t>
   </si>
   <si>
@@ -652,6 +649,9 @@
   </si>
   <si>
     <t>(*) La información contenida en estos campos, debe coincidir con la consignada en el Anexo 4.27D.</t>
+  </si>
+  <si>
+    <t>(3) Importe de la variación del capital fiduciario con relación al semestre anterior.</t>
   </si>
 </sst>
 </file>
@@ -1210,6 +1210,7 @@
     <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1252,11 +1253,14 @@
     <xf numFmtId="39" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="39" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="39" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="39" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1284,10 +1288,6 @@
     </xf>
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1650,20 +1650,20 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -3612,10 +3612,10 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="I61" s="99" t="s">
+      <c r="I61" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="J61" s="99"/>
+      <c r="J61" s="100"/>
       <c r="K61" s="11" t="s">
         <v>1</v>
       </c>
@@ -3691,8 +3691,8 @@
   </sheetPr>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3735,7 +3735,7 @@
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>58</v>
@@ -4133,10 +4133,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
+        <v>171</v>
+      </c>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
@@ -4192,27 +4192,27 @@
       <c r="A42" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="100"/>
-      <c r="D42" s="101" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="101"/>
+      <c r="B42" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="101"/>
+      <c r="D42" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="102"/>
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="59"/>
-      <c r="B43" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="103"/>
-      <c r="D43" s="101" t="s">
+      <c r="B43" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="104"/>
+      <c r="D43" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="101"/>
+      <c r="E43" s="102"/>
       <c r="H43" s="59"/>
       <c r="I43" s="59"/>
     </row>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
@@ -4359,8 +4359,8 @@
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
-    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
-Circular ASFI/536/2018 (úlima)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8&amp;K000000Control de versiones
+Circular ASFI/608/2019 (úlima)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
 Anexo 4.27A
@@ -4448,7 +4448,7 @@
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>58</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -4602,87 +4602,87 @@
       <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="109" t="s">
+      <c r="S11" s="111"/>
+    </row>
+    <row r="12" spans="1:19" s="63" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="106"/>
+      <c r="B12" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="S11" s="110"/>
-    </row>
-    <row r="12" spans="1:19" s="63" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="105"/>
-      <c r="B12" s="62" t="s">
+      <c r="C12" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="D12" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="E12" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="F12" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="G12" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="H12" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="I12" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="62" t="s">
+      <c r="J12" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="K12" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="K12" s="62" t="s">
+      <c r="L12" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="62" t="s">
+      <c r="M12" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="62" t="s">
+      <c r="N12" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="62" t="s">
+      <c r="O12" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="62" t="s">
+      <c r="P12" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="62" t="s">
+      <c r="Q12" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="Q12" s="62" t="s">
+      <c r="R12" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="R12" s="62" t="s">
+      <c r="S12" s="62" t="s">
         <v>94</v>
-      </c>
-      <c r="S12" s="62" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -5062,8 +5062,8 @@
       <c r="Q30" s="70"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="123" t="s">
-        <v>167</v>
+      <c r="A31" s="98" t="s">
+        <v>166</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
@@ -5232,14 +5232,14 @@
       <c r="A40" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="100"/>
-      <c r="E40" s="101" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" s="101"/>
+      <c r="B40" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="101"/>
+      <c r="E40" s="102" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="102"/>
       <c r="G40" s="81"/>
       <c r="H40" s="59"/>
       <c r="I40" s="72"/>
@@ -5250,14 +5250,14 @@
     </row>
     <row r="41" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="59"/>
-      <c r="B41" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="103"/>
-      <c r="E41" s="101" t="s">
+      <c r="B41" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="E41" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="101"/>
+      <c r="F41" s="102"/>
       <c r="G41" s="81"/>
       <c r="H41" s="59"/>
       <c r="I41" s="41"/>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="61"/>
       <c r="C43" s="61"/>
@@ -5459,7 +5459,7 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>58</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -5755,22 +5755,22 @@
         <v>62</v>
       </c>
       <c r="B12" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="D12" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="E12" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="F12" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="G12" s="62" t="s">
         <v>108</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>109</v>
       </c>
       <c r="J12" s="75"/>
     </row>
@@ -5940,8 +5940,8 @@
       <c r="A31" s="69"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A32" s="123" t="s">
-        <v>167</v>
+      <c r="A32" s="98" t="s">
+        <v>166</v>
       </c>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
@@ -6070,27 +6070,27 @@
       <c r="A37" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="101"/>
+      <c r="B37" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="101"/>
+      <c r="D37" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="102"/>
       <c r="I37" s="72"/>
       <c r="J37" s="72"/>
     </row>
     <row r="38" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="59"/>
-      <c r="B38" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="101" t="s">
+      <c r="B38" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="101"/>
+      <c r="E38" s="102"/>
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
     </row>
@@ -6112,15 +6112,15 @@
       <c r="O39" s="41"/>
     </row>
     <row r="40" spans="1:34" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
+      <c r="A40" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="42"/>
@@ -6270,7 +6270,7 @@
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>58</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -6349,37 +6349,37 @@
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="106" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="108"/>
+      <c r="B11" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
     </row>
     <row r="12" spans="1:7" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="105"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="62" t="s">
-        <v>79</v>
-      </c>
       <c r="D12" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="62" t="s">
-        <v>86</v>
-      </c>
       <c r="G12" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -6527,30 +6527,30 @@
       <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="124" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
+      <c r="A29" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
+      <c r="A30" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="113"/>
       <c r="C31" s="113"/>
@@ -6591,27 +6591,27 @@
         <v>5</v>
       </c>
       <c r="B35" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
+        <v>99</v>
+      </c>
+      <c r="C35" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
       <c r="G35" s="78"/>
     </row>
     <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="59"/>
       <c r="B36" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
       <c r="G36" s="78"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -6624,15 +6624,15 @@
       <c r="G37" s="59"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
+      <c r="A38" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
@@ -6668,17 +6668,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="97" orientation="landscape" r:id="rId1"/>
@@ -6801,7 +6801,7 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>58</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="9" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -7053,16 +7053,16 @@
         <v>62</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="62" t="s">
         <v>106</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>107</v>
       </c>
       <c r="F11" s="80"/>
       <c r="G11" s="80"/>
@@ -7234,8 +7234,8 @@
       <c r="A30" s="69"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A31" s="123" t="s">
-        <v>170</v>
+      <c r="A31" s="98" t="s">
+        <v>169</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -7365,11 +7365,11 @@
         <v>5</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="78"/>
       <c r="I36" s="72"/>
@@ -7378,7 +7378,7 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="59"/>
       <c r="B37" s="96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="82" t="s">
@@ -7406,13 +7406,13 @@
       <c r="O38" s="41"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="114" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
+      <c r="A39" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="83"/>
       <c r="G39" s="83"/>
       <c r="H39" s="42"/>
@@ -7465,7 +7465,7 @@
   </sheetPr>
   <dimension ref="A1:AL85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -7563,7 +7563,7 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>58</v>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
@@ -7837,30 +7837,30 @@
         <v>54</v>
       </c>
       <c r="E11" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="G11" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="H11" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="87" t="s">
-        <v>123</v>
-      </c>
       <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="119"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="88"/>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>26</v>
@@ -7902,7 +7902,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="65" t="s">
         <v>36</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="65" t="s">
         <v>28</v>
@@ -7930,7 +7930,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>29</v>
@@ -7944,7 +7944,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>30</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>31</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>32</v>
@@ -7986,7 +7986,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>33</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" s="65" t="s">
         <v>52</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>41</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="65" t="s">
         <v>42</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="65" t="s">
         <v>48</v>
@@ -8088,7 +8088,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>49</v>
@@ -8124,10 +8124,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="65" t="s">
         <v>137</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>138</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="65"/>
@@ -8138,7 +8138,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B34" s="65" t="s">
         <v>34</v>
@@ -8173,16 +8173,16 @@
       <c r="H36" s="65"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="119"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="121"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="88"/>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40" s="65" t="s">
         <v>26</v>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B41" s="65" t="s">
         <v>36</v>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B42" s="65" t="s">
         <v>28</v>
@@ -8252,7 +8252,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" s="65" t="s">
         <v>29</v>
@@ -8266,7 +8266,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B44" s="65" t="s">
         <v>30</v>
@@ -8280,7 +8280,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B45" s="65" t="s">
         <v>31</v>
@@ -8294,7 +8294,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46" s="65" t="s">
         <v>32</v>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B47" s="65" t="s">
         <v>33</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50" s="65" t="s">
         <v>52</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" s="65" t="s">
         <v>41</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B52" s="65" t="s">
         <v>42</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B54" s="65" t="s">
         <v>49</v>
@@ -8432,10 +8432,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="65"/>
@@ -8446,7 +8446,7 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B58" s="65" t="s">
         <v>34</v>
@@ -8471,10 +8471,10 @@
       <c r="H59" s="65"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A60" s="115" t="s">
+      <c r="A60" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="116"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="94"/>
       <c r="D60" s="94"/>
       <c r="E60" s="94"/>
@@ -8492,16 +8492,16 @@
       <c r="H61" s="35"/>
     </row>
     <row r="62" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="120" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="120"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="120"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="120"/>
-      <c r="H62" s="120"/>
+      <c r="A62" s="122" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="122"/>
+      <c r="H62" s="122"/>
       <c r="I62" s="54"/>
       <c r="J62" s="54"/>
       <c r="K62" s="54"/>
@@ -8530,16 +8530,16 @@
       <c r="AH62" s="35"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A63" s="120" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="120"/>
-      <c r="C63" s="120"/>
-      <c r="D63" s="120"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="120"/>
-      <c r="H63" s="120"/>
+      <c r="A63" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="122"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="122"/>
       <c r="I63" s="54"/>
       <c r="J63" s="54"/>
       <c r="K63" s="54"/>
@@ -8568,16 +8568,16 @@
       <c r="AH63" s="35"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A64" s="121" t="s">
+      <c r="A64" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="122"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="122"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="122"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
       <c r="I64" s="57"/>
       <c r="J64" s="57"/>
       <c r="K64" s="57"/>
@@ -8625,15 +8625,15 @@
         <v>5</v>
       </c>
       <c r="B67" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="101"/>
+        <v>117</v>
+      </c>
+      <c r="C67" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="102"/>
       <c r="E67" s="35"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
       <c r="H67" s="78"/>
       <c r="I67" s="72"/>
       <c r="J67" s="72"/>
@@ -8641,15 +8641,15 @@
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="59"/>
       <c r="B68" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="101"/>
+      <c r="D68" s="102"/>
       <c r="E68" s="35"/>
-      <c r="F68" s="101"/>
-      <c r="G68" s="101"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
       <c r="H68" s="78"/>
       <c r="I68" s="41"/>
       <c r="J68" s="41"/>
@@ -8672,16 +8672,16 @@
       <c r="O69" s="41"/>
     </row>
     <row r="70" spans="1:15" s="85" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="114" t="s">
-        <v>155</v>
-      </c>
-      <c r="B70" s="114"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="114"/>
+      <c r="A70" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="116"/>
+      <c r="C70" s="116"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="116"/>
+      <c r="G70" s="116"/>
+      <c r="H70" s="116"/>
       <c r="I70" s="42"/>
       <c r="J70" s="42"/>
       <c r="K70" s="42"/>

--- a/normativa/Anexos/L05T02C03/L05T02C03A04_27.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A04_27.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="663" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="663" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 2" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="Anexo 4.27A" sheetId="11" r:id="rId2"/>
+    <sheet name="Anexo 4.27A" sheetId="5" r:id="rId2"/>
     <sheet name="Anexo 4.27B" sheetId="6" r:id="rId3"/>
     <sheet name="Anexo 4.27C" sheetId="7" r:id="rId4"/>
     <sheet name="Anexo 4.27D" sheetId="8" r:id="rId5"/>
@@ -21,16 +21,16 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Anexo 4.27C'!$A$1:$G$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Anexo 4.27D'!$A$1:$G$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Anexo 4.27E'!$A$1:$H$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Anexo 4.27F'!$A$1:$H$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Anexo 4.27F'!$A$1:$H$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'HOJA 2'!$A$1:$L$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'Anexo 4.27F'!$1:$11</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="173">
   <si>
     <t>Contador General</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Pasivo y Patrimonio</t>
   </si>
   <si>
-    <t>(***) Importes que deben coincidir con los saldos reportados en los estados financieros.</t>
-  </si>
-  <si>
     <t>REPORTE DE INFORMACIÓN RELACIONADA A FIDEICOMISOS</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>(2) Importe del patrimonio del fideicomiso.</t>
+  </si>
+  <si>
+    <t>(3) Importe de la variación del capital fiduciario con relación al trimestre anterior</t>
   </si>
   <si>
     <t>_________________________________</t>
@@ -566,10 +566,6 @@
     <t>889.00</t>
   </si>
   <si>
-    <t>(*) Número único correlativo asignado a cada fideicomiso administrado, compuesto por la sigla de la entidad seguida de guion (-) y el número respectivo (Ej. BNB-001, BUN-025). 
-     Se deben incluir tantas columnas como fideicomisos se administren.</t>
-  </si>
-  <si>
     <r>
       <t>NOTA:</t>
     </r>
@@ -596,69 +592,86 @@
     </r>
   </si>
   <si>
-    <t>(**) Se considera a los fondos de garantía de crédito para el sector productivo y de vivienda de interés social, a efectos de validar la integridad de la información financiera.</t>
+    <t>_______________________________</t>
+  </si>
+  <si>
+    <t>________________________</t>
+  </si>
+  <si>
+    <t>ANEXO 4.27A:</t>
+  </si>
+  <si>
+    <t>ANEXO 4.27B:</t>
+  </si>
+  <si>
+    <t>ANEXO 4.27C:</t>
+  </si>
+  <si>
+    <t>ANEXO 4.27D:</t>
+  </si>
+  <si>
+    <t>ANEXO 4.27E:</t>
+  </si>
+  <si>
+    <t>ANEXO 4.27F:</t>
+  </si>
+  <si>
+    <t>(1) Número único correlativo asignado a cada fideicomiso administrado por el cual se reporta al fideicomitente. Dicho código debe coincidir con el consignado en el Anexo 4.27A.</t>
+  </si>
+  <si>
+    <t>(6) En caso de que el fideicomitente corresponda a una Persona Jurídica reportada en el Anexo 4.27C, se deben llenar además todos los campos de "Persona Natural" por cada uno de sus Accionistas o Socios, Representantes Legales y Directores.</t>
+  </si>
+  <si>
+    <t>(2) La información contenida en estos campos, debe coincidir con la consignada en el Anexo 4.27B.</t>
+  </si>
+  <si>
+    <t>(1) Número único correlativo asignado a cada fideicomiso administrado por el cual se reporta al beneficiario. Dicho código debe coincidir con el consignado en el Anexo 4.27A.</t>
+  </si>
+  <si>
+    <t>(*) La información contenida en estos campos, debe coincidir con la consignada en el Anexo 4.27D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       (Nombre y Cargo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (***)  Importes que deben coincidir con los saldos reportados en los estados financieros.</t>
   </si>
   <si>
     <r>
-      <t>(Nombre y Cargo</t>
+      <t xml:space="preserve">    (*)   Número único correlativo asignado a cada fideicomiso administrado, compuesto por la sigla de la entidad seguida de guion (-) y el número respectivo (Ej. BNB-001, BUN-025). 
+           </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
+        <color theme="0"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
+      <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>_______________________________</t>
-  </si>
-  <si>
-    <t>________________________</t>
-  </si>
-  <si>
-    <t>ANEXO 4.27A:</t>
-  </si>
-  <si>
-    <t>ANEXO 4.27B:</t>
-  </si>
-  <si>
-    <t>ANEXO 4.27C:</t>
-  </si>
-  <si>
-    <t>ANEXO 4.27D:</t>
-  </si>
-  <si>
-    <t>ANEXO 4.27E:</t>
-  </si>
-  <si>
-    <t>ANEXO 4.27F:</t>
-  </si>
-  <si>
-    <t>(1) Número único correlativo asignado a cada fideicomiso administrado por el cual se reporta al fideicomitente. Dicho código debe coincidir con el consignado en el Anexo 4.27A.</t>
-  </si>
-  <si>
-    <t>(6) En caso de que el fideicomitente corresponda a una Persona Jurídica reportada en el Anexo 4.27C, se deben llenar además todos los campos de "Persona Natural" por cada uno de sus Accionistas o Socios, Representantes Legales y Directores.</t>
-  </si>
-  <si>
-    <t>(2) La información contenida en estos campos, debe coincidir con la consignada en el Anexo 4.27B.</t>
-  </si>
-  <si>
-    <t>(1) Número único correlativo asignado a cada fideicomiso administrado por el cual se reporta al beneficiario. Dicho código debe coincidir con el consignado en el Anexo 4.27A.</t>
-  </si>
-  <si>
-    <t>(*) La información contenida en estos campos, debe coincidir con la consignada en el Anexo 4.27D.</t>
-  </si>
-  <si>
-    <t>(3) Importe de la variación del capital fiduciario con relación al semestre anterior.</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Se deben incluir tantas columnas como fideicomisos se administren.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cuentas de orden contigentes acreedoras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (**)   Se considera a los Fondos de Garantía de Créditos para el Sector Productivo, de Vivienda de Interés Social y para el Sector Gremial, a efectos de validar la integridad de la información financiera.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,6 +866,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1023,7 +1042,7 @@
     <xf numFmtId="39" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1211,6 +1230,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1281,6 +1304,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1650,20 +1676,20 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -3612,10 +3638,10 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="I61" s="100" t="s">
+      <c r="I61" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="J61" s="100"/>
+      <c r="J61" s="102"/>
       <c r="K61" s="11" t="s">
         <v>1</v>
       </c>
@@ -3691,8 +3717,8 @@
   </sheetPr>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3735,10 +3761,10 @@
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="35"/>
@@ -3768,7 +3794,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -3781,7 +3807,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -3805,7 +3831,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -3821,31 +3847,31 @@
     </row>
     <row r="11" spans="1:9" s="45" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="E11" s="44" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>65</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="I11" s="44" t="s">
         <v>67</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4107,7 +4133,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -4120,7 +4146,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -4133,10 +4159,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
+        <v>70</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
@@ -4192,27 +4218,27 @@
       <c r="A42" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="101" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102" t="s">
+      <c r="B42" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="103"/>
+      <c r="D42" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="102"/>
+      <c r="E42" s="104"/>
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="59"/>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="102" t="s">
+      <c r="C43" s="106"/>
+      <c r="D43" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="102"/>
+      <c r="E43" s="104"/>
       <c r="H43" s="59"/>
       <c r="I43" s="59"/>
     </row>
@@ -4359,8 +4385,8 @@
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
-    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8&amp;K000000Control de versiones
-Circular ASFI/608/2019 (úlima)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
+Circular ASFI/536/2018 (úlima)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
 Anexo 4.27A
@@ -4376,7 +4402,7 @@
   </sheetPr>
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -4448,10 +4474,10 @@
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -4502,7 +4528,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -4523,7 +4549,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -4602,34 +4628,34 @@
       <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="107" t="s">
+      <c r="A11" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="110" t="s">
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="S11" s="111"/>
+      <c r="S11" s="113"/>
     </row>
     <row r="12" spans="1:19" s="63" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="106"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="62" t="s">
         <v>77</v>
       </c>
@@ -5063,7 +5089,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="98" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -5168,7 +5194,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
@@ -5232,14 +5258,14 @@
       <c r="A40" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="101" t="s">
+      <c r="B40" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="101"/>
-      <c r="E40" s="102" t="s">
-        <v>159</v>
-      </c>
-      <c r="F40" s="102"/>
+      <c r="C40" s="103"/>
+      <c r="E40" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="104"/>
       <c r="G40" s="81"/>
       <c r="H40" s="59"/>
       <c r="I40" s="72"/>
@@ -5250,14 +5276,14 @@
     </row>
     <row r="41" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="59"/>
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="E41" s="102" t="s">
+      <c r="C41" s="106"/>
+      <c r="E41" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="102"/>
+      <c r="F41" s="104"/>
       <c r="G41" s="81"/>
       <c r="H41" s="59"/>
       <c r="I41" s="41"/>
@@ -5360,7 +5386,7 @@
   </sheetPr>
   <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:A33"/>
     </sheetView>
   </sheetViews>
@@ -5459,10 +5485,10 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="38"/>
       <c r="H3" s="35"/>
@@ -5562,7 +5588,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -5602,7 +5628,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -5752,7 +5778,7 @@
     </row>
     <row r="12" spans="1:38" s="45" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>103</v>
@@ -5941,7 +5967,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="98" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -5979,7 +6005,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="71" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
@@ -6070,27 +6096,27 @@
       <c r="A37" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102" t="s">
+      <c r="C37" s="103"/>
+      <c r="D37" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="102"/>
+      <c r="E37" s="104"/>
       <c r="I37" s="72"/>
       <c r="J37" s="72"/>
     </row>
     <row r="38" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="59"/>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="102" t="s">
+      <c r="C38" s="106"/>
+      <c r="D38" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="102"/>
+      <c r="E38" s="104"/>
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
     </row>
@@ -6112,15 +6138,15 @@
       <c r="O39" s="41"/>
     </row>
     <row r="40" spans="1:34" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="42"/>
@@ -6231,7 +6257,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:G29"/>
     </sheetView>
   </sheetViews>
@@ -6270,10 +6296,10 @@
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
@@ -6299,7 +6325,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -6310,7 +6336,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -6349,20 +6375,20 @@
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="107" t="s">
+      <c r="A11" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
     </row>
     <row r="12" spans="1:7" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="106"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="62" t="s">
         <v>77</v>
       </c>
@@ -6527,46 +6553,46 @@
       <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="114" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
+      <c r="A29" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="113" t="s">
+      <c r="A31" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="41"/>
@@ -6593,12 +6619,12 @@
       <c r="B35" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="102" t="s">
+      <c r="C35" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
       <c r="G35" s="78"/>
     </row>
     <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6606,12 +6632,12 @@
       <c r="B36" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
       <c r="G36" s="78"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -6624,15 +6650,15 @@
       <c r="G37" s="59"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="112" t="s">
+      <c r="A38" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
@@ -6801,10 +6827,10 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="38"/>
       <c r="H3" s="35"/>
@@ -6904,7 +6930,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="41"/>
       <c r="E6" s="41"/>
@@ -6940,7 +6966,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="41"/>
       <c r="E7" s="41"/>
@@ -7050,7 +7076,7 @@
     </row>
     <row r="11" spans="1:38" s="45" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>116</v>
@@ -7235,7 +7261,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="98" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -7273,7 +7299,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="71" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -7406,13 +7432,13 @@
       <c r="O38" s="41"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="116" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
+      <c r="A39" s="118" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
       <c r="F39" s="83"/>
       <c r="G39" s="83"/>
       <c r="H39" s="42"/>
@@ -7461,12 +7487,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL85"/>
+  <dimension ref="A1:AL86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7563,10 +7590,10 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="38"/>
@@ -7666,7 +7693,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="59"/>
@@ -7704,7 +7731,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="59"/>
@@ -7823,7 +7850,7 @@
       <c r="F10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="1:38" s="45" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" s="45" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
         <v>23</v>
       </c>
@@ -7851,16 +7878,16 @@
       <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="88"/>
@@ -8173,16 +8200,16 @@
       <c r="H36" s="65"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="119" t="s">
+      <c r="A37" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="121"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="123"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="88"/>
@@ -8395,11 +8422,11 @@
       <c r="H53" s="65"/>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A54" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="65" t="s">
-        <v>49</v>
+      <c r="A54" s="91">
+        <v>988</v>
+      </c>
+      <c r="B54" s="100" t="s">
+        <v>171</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="65"/>
@@ -8409,8 +8436,12 @@
       <c r="H54" s="65"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A55" s="91"/>
-      <c r="B55" s="65"/>
+      <c r="A55" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>49</v>
+      </c>
       <c r="C55" s="65"/>
       <c r="D55" s="65"/>
       <c r="E55" s="65"/>
@@ -8420,9 +8451,7 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="91"/>
-      <c r="B56" s="92" t="s">
-        <v>45</v>
-      </c>
+      <c r="B56" s="65"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
@@ -8431,11 +8460,9 @@
       <c r="H56" s="65"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A57" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" s="65" t="s">
-        <v>137</v>
+      <c r="A57" s="91"/>
+      <c r="B57" s="92" t="s">
+        <v>45</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="65"/>
@@ -8446,10 +8473,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="C58" s="65"/>
       <c r="D58" s="65"/>
@@ -8459,9 +8486,11 @@
       <c r="H58" s="65"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A59" s="93"/>
+      <c r="A59" s="91" t="s">
+        <v>152</v>
+      </c>
       <c r="B59" s="65" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C59" s="65"/>
       <c r="D59" s="65"/>
@@ -8471,75 +8500,49 @@
       <c r="H59" s="65"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A60" s="117" t="s">
+      <c r="A60" s="93"/>
+      <c r="B60" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A61" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="118"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A61" s="95"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="H61" s="35"/>
-    </row>
-    <row r="62" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="122" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="122"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="35"/>
-      <c r="Y62" s="35"/>
-      <c r="Z62" s="35"/>
-      <c r="AA62" s="35"/>
-      <c r="AB62" s="35"/>
-      <c r="AC62" s="35"/>
-      <c r="AD62" s="35"/>
-      <c r="AE62" s="35"/>
-      <c r="AF62" s="35"/>
-      <c r="AG62" s="35"/>
-      <c r="AH62" s="35"/>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A63" s="122" t="s">
-        <v>156</v>
-      </c>
-      <c r="B63" s="122"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="122"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="122"/>
-      <c r="G63" s="122"/>
-      <c r="H63" s="122"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A62" s="95"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="H62" s="35"/>
+    </row>
+    <row r="63" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="124" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="124"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
       <c r="I63" s="54"/>
       <c r="J63" s="54"/>
       <c r="K63" s="54"/>
@@ -8568,37 +8571,58 @@
       <c r="AH63" s="35"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A64" s="123" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="124"/>
-      <c r="C64" s="124"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
+      <c r="A64" s="125" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+      <c r="AD64" s="35"/>
+      <c r="AE64" s="35"/>
+      <c r="AF64" s="35"/>
+      <c r="AG64" s="35"/>
+      <c r="AH64" s="35"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
+      <c r="A65" s="126" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="127"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="127"/>
+      <c r="G65" s="127"/>
+      <c r="H65" s="127"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
       <c r="M65" s="41"/>
       <c r="N65" s="41"/>
       <c r="O65" s="41"/>
@@ -8621,115 +8645,133 @@
       <c r="O66" s="41"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="58" t="s">
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="78" t="s">
+      <c r="B68" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="102" t="s">
+      <c r="C68" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="102"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="59"/>
-      <c r="B68" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="102"/>
+      <c r="D68" s="104"/>
       <c r="E68" s="35"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
+      <c r="F68" s="104"/>
+      <c r="G68" s="104"/>
       <c r="H68" s="78"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
+      <c r="B69" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="104"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="104"/>
+      <c r="H69" s="78"/>
       <c r="I69" s="41"/>
       <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-    </row>
-    <row r="70" spans="1:15" s="85" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="B70" s="116"/>
-      <c r="C70" s="116"/>
-      <c r="D70" s="116"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="116"/>
-      <c r="G70" s="116"/>
-      <c r="H70" s="116"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="84"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-    </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E85" s="36" t="s">
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+    </row>
+    <row r="71" spans="1:15" s="85" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="118"/>
+      <c r="C71" s="118"/>
+      <c r="D71" s="118"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="118"/>
+      <c r="G71" s="118"/>
+      <c r="H71" s="118"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E86" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F85" s="36" t="s">
+      <c r="F86" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="35" t="s">
+      <c r="G86" s="35" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A65:H65"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="F68:G68"/>
-    <mergeCell ref="A70:H70"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="F67:G67"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="35" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Times New Roman,Cursiva"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
-Circular ASFI/536/2018 (inicial)
+Circular ASFI/731/2022 (última)
 &amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III

--- a/normativa/Anexos/L05T02C03/L05T02C03A04_27.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A04_27.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="663" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4710" tabRatio="663" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 2" sheetId="2" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Anexo 4.27C'!$A$1:$G$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Anexo 4.27D'!$A$1:$G$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Anexo 4.27E'!$A$1:$H$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Anexo 4.27F'!$A$1:$H$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Anexo 4.27F'!$A$1:$H$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'HOJA 2'!$A$1:$L$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'Anexo 4.27F'!$1:$11</definedName>
   </definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="178">
   <si>
     <t>Contador General</t>
   </si>
@@ -664,13 +664,38 @@
     <t>Cuentas de orden contigentes acreedoras</t>
   </si>
   <si>
-    <t xml:space="preserve">  (**)   Se considera a los Fondos de Garantía de Créditos para el Sector Productivo, de Vivienda de Interés Social y para el Sector Gremial, a efectos de validar la integridad de la información financiera.</t>
+    <t>975.00</t>
+  </si>
+  <si>
+    <t>976.00</t>
+  </si>
+  <si>
+    <t>Obligaciones privilegiadas de segundo orden</t>
+  </si>
+  <si>
+    <t>Obligaciones privilegiadas de primer orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            la integridad de la información financiera.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  (**)   Se considera a los Fondos de Garantía de Créditos para el Sector Productivo, de Vivienda de Interés Social, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>para el Sector Gremial y del Fondo de Garantía de Apoyo a la Construcción, a efectos de validar</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1042,7 +1067,7 @@
     <xf numFmtId="39" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1306,14 +1331,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1324,6 +1352,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3333FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1336,7 +1369,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1628,7 +1661,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
     <col min="2" max="3" width="22.5703125" style="1" customWidth="1"/>
@@ -3717,11 +3750,9 @@
   </sheetPr>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="90" zoomScaleNormal="115" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="36" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="36" customWidth="1"/>
@@ -4402,11 +4433,9 @@
   </sheetPr>
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="36" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="36"/>
@@ -5386,11 +5415,9 @@
   </sheetPr>
   <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A33"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="36" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="36" customWidth="1"/>
@@ -6257,11 +6284,9 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G29"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="36" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" style="36" customWidth="1"/>
@@ -6728,11 +6753,9 @@
   </sheetPr>
   <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="36" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="36" customWidth="1"/>
@@ -7490,13 +7513,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL86"/>
+  <dimension ref="A1:AL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="36" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" style="36" customWidth="1"/>
@@ -8089,9 +8112,13 @@
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="91"/>
-      <c r="B28" s="65"/>
+    <row r="28" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>175</v>
+      </c>
       <c r="C28" s="65"/>
       <c r="D28" s="65"/>
       <c r="E28" s="65"/>
@@ -8099,12 +8126,12 @@
       <c r="G28" s="65"/>
       <c r="H28" s="65"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="91" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="65"/>
@@ -8114,12 +8141,8 @@
       <c r="H29" s="65"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>49</v>
-      </c>
+      <c r="A30" s="91"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="65"/>
       <c r="D30" s="65"/>
       <c r="E30" s="65"/>
@@ -8128,8 +8151,12 @@
       <c r="H30" s="65"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="91"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>48</v>
+      </c>
       <c r="C31" s="65"/>
       <c r="D31" s="65"/>
       <c r="E31" s="65"/>
@@ -8138,9 +8165,11 @@
       <c r="H31" s="65"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="91"/>
-      <c r="B32" s="92" t="s">
-        <v>45</v>
+      <c r="A32" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>49</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="65"/>
@@ -8150,12 +8179,8 @@
       <c r="H32" s="65"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>137</v>
-      </c>
+      <c r="A33" s="91"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="65"/>
       <c r="D33" s="65"/>
       <c r="E33" s="65"/>
@@ -8164,11 +8189,9 @@
       <c r="H33" s="65"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="65" t="s">
-        <v>34</v>
+      <c r="A34" s="91"/>
+      <c r="B34" s="92" t="s">
+        <v>45</v>
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="65"/>
@@ -8178,9 +8201,11 @@
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="93"/>
+      <c r="A35" s="91" t="s">
+        <v>136</v>
+      </c>
       <c r="B35" s="65" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="65"/>
@@ -8190,8 +8215,12 @@
       <c r="H35" s="65"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="93"/>
-      <c r="B36" s="65"/>
+      <c r="A36" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>34</v>
+      </c>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
@@ -8200,61 +8229,55 @@
       <c r="H36" s="65"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="121" t="s">
+      <c r="A37" s="93"/>
+      <c r="B37" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="93"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="122"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="123"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="88"/>
-      <c r="B38" s="89" t="s">
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="123"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="88"/>
+      <c r="B40" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="91"/>
-      <c r="B39" s="92" t="s">
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="91"/>
+      <c r="B41" s="92" t="s">
         <v>55</v>
-      </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="65" t="s">
-        <v>36</v>
       </c>
       <c r="C41" s="65"/>
       <c r="D41" s="65"/>
@@ -8265,10 +8288,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B42" s="65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42" s="65"/>
       <c r="D42" s="65"/>
@@ -8279,10 +8302,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B43" s="65" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C43" s="65"/>
       <c r="D43" s="65"/>
@@ -8293,10 +8316,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B44" s="65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="65"/>
@@ -8307,10 +8330,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45" s="65"/>
       <c r="D45" s="65"/>
@@ -8321,10 +8344,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="91" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B46" s="65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46" s="65"/>
       <c r="D46" s="65"/>
@@ -8335,10 +8358,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="91" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B47" s="65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="65"/>
@@ -8348,8 +8371,12 @@
       <c r="H47" s="65"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="91"/>
-      <c r="B48" s="65"/>
+      <c r="A48" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>32</v>
+      </c>
       <c r="C48" s="65"/>
       <c r="D48" s="65"/>
       <c r="E48" s="65"/>
@@ -8357,10 +8384,12 @@
       <c r="G48" s="65"/>
       <c r="H48" s="65"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A49" s="91"/>
-      <c r="B49" s="92" t="s">
-        <v>56</v>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="C49" s="65"/>
       <c r="D49" s="65"/>
@@ -8369,13 +8398,9 @@
       <c r="G49" s="65"/>
       <c r="H49" s="65"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A50" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="65" t="s">
-        <v>52</v>
-      </c>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="91"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="65"/>
       <c r="D50" s="65"/>
       <c r="E50" s="65"/>
@@ -8383,12 +8408,10 @@
       <c r="G50" s="65"/>
       <c r="H50" s="65"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A51" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="65" t="s">
-        <v>41</v>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="91"/>
+      <c r="B51" s="92" t="s">
+        <v>56</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="65"/>
@@ -8397,12 +8420,12 @@
       <c r="G51" s="65"/>
       <c r="H51" s="65"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="91" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B52" s="65" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="65"/>
@@ -8411,9 +8434,13 @@
       <c r="G52" s="65"/>
       <c r="H52" s="65"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A53" s="91"/>
-      <c r="B53" s="65"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>41</v>
+      </c>
       <c r="C53" s="65"/>
       <c r="D53" s="65"/>
       <c r="E53" s="65"/>
@@ -8421,12 +8448,12 @@
       <c r="G53" s="65"/>
       <c r="H53" s="65"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A54" s="91">
-        <v>988</v>
-      </c>
-      <c r="B54" s="100" t="s">
-        <v>171</v>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="65" t="s">
+        <v>42</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="65"/>
@@ -8435,13 +8462,9 @@
       <c r="G54" s="65"/>
       <c r="H54" s="65"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A55" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="65" t="s">
-        <v>49</v>
-      </c>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="91"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="65"/>
       <c r="D55" s="65"/>
       <c r="E55" s="65"/>
@@ -8449,9 +8472,13 @@
       <c r="G55" s="65"/>
       <c r="H55" s="65"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A56" s="91"/>
-      <c r="B56" s="65"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="91">
+        <v>988</v>
+      </c>
+      <c r="B56" s="100" t="s">
+        <v>171</v>
+      </c>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
@@ -8459,10 +8486,12 @@
       <c r="G56" s="65"/>
       <c r="H56" s="65"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A57" s="91"/>
-      <c r="B57" s="92" t="s">
-        <v>45</v>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>49</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="65"/>
@@ -8471,13 +8500,9 @@
       <c r="G57" s="65"/>
       <c r="H57" s="65"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A58" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="65" t="s">
-        <v>137</v>
-      </c>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="91"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="65"/>
       <c r="D58" s="65"/>
       <c r="E58" s="65"/>
@@ -8485,12 +8510,10 @@
       <c r="G58" s="65"/>
       <c r="H58" s="65"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A59" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="65" t="s">
-        <v>34</v>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="91"/>
+      <c r="B59" s="92" t="s">
+        <v>45</v>
       </c>
       <c r="C59" s="65"/>
       <c r="D59" s="65"/>
@@ -8499,10 +8522,12 @@
       <c r="G59" s="65"/>
       <c r="H59" s="65"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A60" s="93"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="91" t="s">
+        <v>151</v>
+      </c>
       <c r="B60" s="65" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="C60" s="65"/>
       <c r="D60" s="65"/>
@@ -8511,191 +8536,204 @@
       <c r="G60" s="65"/>
       <c r="H60" s="65"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A61" s="119" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="93"/>
+      <c r="B62" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="120"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A62" s="95"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="H62" s="35"/>
-    </row>
-    <row r="63" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="124" t="s">
+      <c r="B63" s="120"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="94"/>
+      <c r="H63" s="94"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="95"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="H64" s="35"/>
+    </row>
+    <row r="65" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="124" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="35"/>
-      <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
-      <c r="AC63" s="35"/>
-      <c r="AD63" s="35"/>
-      <c r="AE63" s="35"/>
-      <c r="AF63" s="35"/>
-      <c r="AG63" s="35"/>
-      <c r="AH63" s="35"/>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A64" s="125" t="s">
-        <v>172</v>
-      </c>
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="35"/>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="35"/>
-      <c r="AG64" s="35"/>
-      <c r="AH64" s="35"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="126" t="s">
+      <c r="B65" s="124"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="35"/>
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="35"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A66" s="128" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="128"/>
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="35"/>
+      <c r="AE66" s="35"/>
+      <c r="AF66" s="35"/>
+      <c r="AG66" s="35"/>
+      <c r="AH66" s="35"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A67" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="127"/>
+      <c r="C67" s="127"/>
+      <c r="D67" s="127"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="127"/>
+      <c r="H67" s="127"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
+      <c r="AH67" s="35"/>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A68" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="127"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="127"/>
-      <c r="H65" s="127"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="104"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="104"/>
-      <c r="G68" s="104"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="72"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B68" s="126"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" s="59"/>
-      <c r="B69" s="99" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="104"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="104"/>
-      <c r="H69" s="78"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
       <c r="I69" s="41"/>
       <c r="J69" s="41"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
@@ -8712,66 +8750,118 @@
       <c r="N70" s="41"/>
       <c r="O70" s="41"/>
     </row>
-    <row r="71" spans="1:15" s="85" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="118" t="s">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A71" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="104"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="104"/>
+      <c r="G71" s="104"/>
+      <c r="H71" s="78"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A72" s="59"/>
+      <c r="B72" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="104"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="104"/>
+      <c r="G72" s="104"/>
+      <c r="H72" s="78"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A73" s="59"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
+    </row>
+    <row r="74" spans="1:34" s="85" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="118" t="s">
         <v>153</v>
       </c>
-      <c r="B71" s="118"/>
-      <c r="C71" s="118"/>
-      <c r="D71" s="118"/>
-      <c r="E71" s="118"/>
-      <c r="F71" s="118"/>
-      <c r="G71" s="118"/>
-      <c r="H71" s="118"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="84"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-    </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E86" s="36" t="s">
+      <c r="B74" s="118"/>
+      <c r="C74" s="118"/>
+      <c r="D74" s="118"/>
+      <c r="E74" s="118"/>
+      <c r="F74" s="118"/>
+      <c r="G74" s="118"/>
+      <c r="H74" s="118"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="84"/>
+      <c r="N74" s="84"/>
+      <c r="O74" s="84"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E89" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="36" t="s">
+      <c r="F89" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="35" t="s">
+      <c r="G89" s="35" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A61:B61"/>
+  <mergeCells count="12">
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A39:H39"/>
     <mergeCell ref="A65:H65"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="A67:H67"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="35" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Times New Roman,Cursiva"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
-Circular ASFI/731/2022 (última)
+Circular ASFI/812/2024 (última)
 &amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
